--- a/data/European_finance/european_financial_institutions_total.xlsx
+++ b/data/European_finance/european_financial_institutions_total.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="R132535eda098444e"/>
+    <sheet name="Data" sheetId="1" r:id="R67aefb8ea07c4adc"/>
   </sheets>
 </workbook>
 </file>
@@ -25,7 +25,7 @@
     <t>Extracted on</t>
   </si>
   <si>
-    <t>22.01.2024</t>
+    <t>25.01.2024</t>
   </si>
   <si>
     <t>Source type</t>
@@ -85,7 +85,7 @@
     <t>Unit of measurement</t>
   </si>
   <si>
-    <t>Percent of total</t>
+    <t>Number of persons (headcount)</t>
   </si>
   <si>
     <t>Geographic region</t>
@@ -502,67 +502,67 @@
         <v>53</v>
       </c>
       <c r="B21" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="L21" s="1">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M21" s="1">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="N21" s="1">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="O21" s="1">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="P21" s="1">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="1">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="R21" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="S21" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="T21" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="U21" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="V21" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -570,67 +570,67 @@
         <v>54</v>
       </c>
       <c r="B22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="L22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="O22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="P22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="R22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="S22" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="T22" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="U22" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="V22" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -638,67 +638,67 @@
         <v>55</v>
       </c>
       <c r="B23" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="M23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="N23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="O23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="P23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="R23" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="S23" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T23" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="U23" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="V23" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -706,67 +706,67 @@
         <v>52</v>
       </c>
       <c r="B24" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G24" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H24" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I24" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J24" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K24" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="L24" s="1">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="M24" s="1">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="N24" s="1">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="O24" s="1">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="P24" s="1">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="R24" s="1">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="S24" s="1">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="T24" s="1">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="U24" s="1">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="V24" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
